--- a/forwardprimer-v3_09.xlsx
+++ b/forwardprimer-v3_09.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_09" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F0769-GACGTGTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACGTGTCTATCGTCGGCAGCGTC</t>
+    <t>F0769-AGGTTCAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTTCAAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F0770-AGACACTCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACACTCACTCGTCGGCAGCGTC</t>
+    <t>F0770-TGCAAGGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCAAGGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F0771-CATGGAAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGGAAGATTCGTCGGCAGCGTC</t>
+    <t>F0771-ACGTCAAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTCAAGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F0772-CTACAAGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACAAGTAGTCGTCGGCAGCGTC</t>
+    <t>F0772-TAGACGTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGACGTCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F0773-AGATCACGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATCACGTATCGTCGGCAGCGTC</t>
+    <t>F0773-AGACGAGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACGAGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F0774-GTCTCAAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTCAAGATTCGTCGGCAGCGTC</t>
+    <t>F0774-AGACGTCGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACGTCGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F0775-TCCAACACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAACACAATCGTCGGCAGCGTC</t>
+    <t>F0775-TTCTCAACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTCAACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F0776-ATGACTCCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGACTCCTCTCGTCGGCAGCGTC</t>
+    <t>F0776-GATCGAGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCGAGGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F0777-TACTAGCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTAGCAAGTCGTCGGCAGCGTC</t>
+    <t>F0777-AGTCGTGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCGTGCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F0778-CCTGAGTTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTGAGTTGATCGTCGGCAGCGTC</t>
+    <t>F0778-AAGAACCTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAACCTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F0779-CAGAGAACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGAGAACGTTCGTCGGCAGCGTC</t>
+    <t>F0779-TGAGACCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGACCAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F0780-CAAGAACTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAACTCTTCGTCGGCAGCGTC</t>
+    <t>F0780-GCATCTCCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATCTCCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F0781-AGTCACCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCACCATGTCGTCGGCAGCGTC</t>
+    <t>F0781-AACAACCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAACCTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F0782-AGCATCGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCATCGAACTCGTCGGCAGCGTC</t>
+    <t>F0782-GTGAGCTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGAGCTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F0783-ACGTACCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTACCAGATCGTCGGCAGCGTC</t>
+    <t>F0783-GTGACACCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGACACCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F0784-TAGTTCTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTTCTCCATCGTCGGCAGCGTC</t>
+    <t>F0784-GGATGTAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGATGTAGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F0785-GCAACCTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCAACCTGTATCGTCGGCAGCGTC</t>
+    <t>F0785-CGTTCGATCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTTCGATCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F0786-TGCAGCAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCAGCAAGTTCGTCGGCAGCGTC</t>
+    <t>F0786-ACATGGAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATGGAAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F0787-AAGTCGTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCGTGATTCGTCGGCAGCGTC</t>
+    <t>F0787-TCTCAACGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCAACGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F0788-CTACCTTGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACCTTGGATCGTCGGCAGCGTC</t>
+    <t>F0788-ATCTCATGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTCATGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F0789-AGTCATCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCATCTCATCGTCGGCAGCGTC</t>
+    <t>F0789-ACTTCCTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTTCCTCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F0790-ACTGAGTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGAGTCTATCGTCGGCAGCGTC</t>
+    <t>F0790-GTACCAGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACCAGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F0791-GTAGCAGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGCAGAAGTCGTCGGCAGCGTC</t>
+    <t>F0791-TGCAGTTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCAGTTCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F0792-TTGTTGCTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTTGCTGGTCGTCGGCAGCGTC</t>
+    <t>F0792-TACCATGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCATGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F0793-ATCATCCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCATCCACTTCGTCGGCAGCGTC</t>
+    <t>F0793-ACTCTAGCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCTAGCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F0794-GAAGACCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGACCAACTCGTCGGCAGCGTC</t>
+    <t>F0794-ACACTACTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACTACTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F0795-CTACGTGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACGTGGAATCGTCGGCAGCGTC</t>
+    <t>F0795-AGGTGTCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTGTCTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F0796-TCTGTCACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTCACAATCGTCGGCAGCGTC</t>
+    <t>F0796-ATCTGCACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTGCACATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F0797-GTGAGATGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGAGATGCATCGTCGGCAGCGTC</t>
+    <t>F0797-TTCTCCAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTCCAAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F0798-GTGGAACGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGGAACGTTTCGTCGGCAGCGTC</t>
+    <t>F0798-CTAGACTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGACTCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F0799-CTTGTCACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGTCACCATCGTCGGCAGCGTC</t>
+    <t>F0799-CATGTCAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGTCAAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F0800-TAGCTTCCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTTCCTCTCGTCGGCAGCGTC</t>
+    <t>F0800-TACCTGACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCTGACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F0801-GTTGACCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGACCAAGTCGTCGGCAGCGTC</t>
+    <t>F0801-AGCAACTGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCAACTGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F0802-CAACTCGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACTCGAGATCGTCGGCAGCGTC</t>
+    <t>F0802-AGCTGATCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTGATCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F0803-CTACTCCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACTCCAAGTCGTCGGCAGCGTC</t>
+    <t>F0803-TTCACTAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCACTAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F0804-AACGATGTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGATGTGGTCGTCGGCAGCGTC</t>
+    <t>F0804-TGGAACTTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGAACTTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F0805-ACAGACACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGACACTTTCGTCGGCAGCGTC</t>
+    <t>F0805-AAGCTACGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTACGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F0806-TCCTCGAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTCGAGTATCGTCGGCAGCGTC</t>
+    <t>F0806-GTTGTTGCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGTTGCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F0807-AACGTGTGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGTGTGGTTCGTCGGCAGCGTC</t>
+    <t>F0807-ATCCTCAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCTCAGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F0808-AGTGTCTAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGTCTAGGTCGTCGGCAGCGTC</t>
+    <t>F0808-GAGCTTGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGCTTGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F0809-TCCAAGGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAAGGACATCGTCGGCAGCGTC</t>
+    <t>F0809-AGAGACCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGACCATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F0810-GTTCCACGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCCACGATTCGTCGGCAGCGTC</t>
+    <t>F0810-TCGACATCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGACATCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F0811-ATGACCAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGACCAACTTCGTCGGCAGCGTC</t>
+    <t>F0811-TAGAGACACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGACACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F0812-TACTCTAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTCTAGGATCGTCGGCAGCGTC</t>
+    <t>F0812-TTCGTAGCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCGTAGCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F0813-GTCAAGAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCAAGAACCTCGTCGGCAGCGTC</t>
+    <t>F0813-CTAGAAGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGAAGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F0814-GAGGTTGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGGTTGCTATCGTCGGCAGCGTC</t>
+    <t>F0814-TGACTACAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACTACAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F0815-CTCGATGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCGATGTACTCGTCGGCAGCGTC</t>
+    <t>F0815-GTGAAGACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGAAGACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F0816-GAACCTTGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACCTTGGTTCGTCGGCAGCGTC</t>
+    <t>F0816-TGCTTCCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTTCCAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F0817-CATGACGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGACGAGTTCGTCGGCAGCGTC</t>
+    <t>F0817-TGTACCACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTACCACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F0818-TCCTTCATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTTCATCGTCGTCGGCAGCGTC</t>
+    <t>F0818-CGTACTTGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTACTTGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F0819-ACCTAGAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTAGAGGATCGTCGGCAGCGTC</t>
+    <t>F0819-TAGGTGTTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTGTTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F0820-TCACCTCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACCTCATCTCGTCGGCAGCGTC</t>
+    <t>F0820-TCGTAGGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTAGGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F0821-TACTCTCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTCTCAGTTCGTCGGCAGCGTC</t>
+    <t>F0821-TGCTCTGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTCTGGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F0822-AGACGAGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACGAGTGTTCGTCGGCAGCGTC</t>
+    <t>F0822-ACACAAGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACAAGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F0823-TACTCTGCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTCTGCACTCGTCGGCAGCGTC</t>
+    <t>F0823-CTGTAGGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTAGGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F0824-CCTAGAGCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTAGAGCTTTCGTCGGCAGCGTC</t>
+    <t>F0824-AGTGAGTCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGAGTCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F0825-CAAGACTAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGACTAGGTCGTCGGCAGCGTC</t>
+    <t>F0825-GTGTCTGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCTGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F0826-GAGTTGTACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTTGTACGTCGTCGGCAGCGTC</t>
+    <t>F0826-CTGTACGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTACGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F0827-TGATGTCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGATGTCACTTCGTCGGCAGCGTC</t>
+    <t>F0827-GTCTGACAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTGACAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F0828-ACACTGAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACTGAACATCGTCGGCAGCGTC</t>
+    <t>F0828-AACAGTTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAGTTCCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F0829-CAACAGGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACAGGAACTCGTCGGCAGCGTC</t>
+    <t>F0829-TCCTGGAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTGGAAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F0830-TCAGCAGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGCAGAACTCGTCGGCAGCGTC</t>
+    <t>F0830-GAGAGAGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGAGAGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F0831-AACGTTCGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGTTCGATTCGTCGGCAGCGTC</t>
+    <t>F0831-AGTCTCATCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCTCATCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F0832-GTCTTGAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTTGAGAGTCGTCGGCAGCGTC</t>
+    <t>F0832-CTACTGGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACTGGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F0833-TGGATGTAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGATGTAGCTCGTCGGCAGCGTC</t>
+    <t>F0833-TTGACGACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGACGACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F0834-AAGAGGACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGGACACTCGTCGGCAGCGTC</t>
+    <t>F0834-ACTCTAGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCTAGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F0835-ACGTGACGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTGACGTATCGTCGGCAGCGTC</t>
+    <t>F0835-TTGATGCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGATGCTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F0836-TGAACGTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAACGTGTCTCGTCGGCAGCGTC</t>
+    <t>F0836-AGGTCCTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTCCTGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F0837-CAACCAGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACCAGACTTCGTCGGCAGCGTC</t>
+    <t>F0837-CAACTGATCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACTGATCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F0838-CCTTCGTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCGTGATTCGTCGGCAGCGTC</t>
+    <t>F0838-TGATCGAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATCGAAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F0839-AACACCAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACCAGTGTCGTCGGCAGCGTC</t>
+    <t>F0839-CTCTGTGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTGTGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F0840-GGTAGTTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTAGTTCTATCGTCGGCAGCGTC</t>
+    <t>F0840-CAGTGCTAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTGCTAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F0841-AGATCCAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATCCAACTTCGTCGGCAGCGTC</t>
+    <t>F0841-AAGTGGATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGGATCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F0842-ACTAGGAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTAGGAACGTCGTCGGCAGCGTC</t>
+    <t>F0842-GACTAGTAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTAGTAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F0843-ACTAGAAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTAGAAGACTCGTCGGCAGCGTC</t>
+    <t>F0843-GTCAACGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCAACGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F0844-TAGCTGTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTGTCTTTCGTCGGCAGCGTC</t>
+    <t>F0844-ATGACAGGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGACAGGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F0845-AAGACACGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGACACGACTCGTCGGCAGCGTC</t>
+    <t>F0845-TTCAGGAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCAGGAACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F0846-GTCTACTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTACTGACTCGTCGGCAGCGTC</t>
+    <t>F0846-CACGAGAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACGAGAAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F0847-TGACAGGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACAGGACATCGTCGGCAGCGTC</t>
+    <t>F0847-CTAGCATGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGCATGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F0848-CACTTCAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTTCAAGGTCGTCGGCAGCGTC</t>
+    <t>F0848-GACTGACTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTGACTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F0849-CCTTGTACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTTGTACATTCGTCGGCAGCGTC</t>
+    <t>F0849-TGAGATCCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGATCCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F0850-TCCTTCCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTTCCAACTCGTCGGCAGCGTC</t>
+    <t>F0850-GTGTACAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTACAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F0851-TAGATCCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGATCCTGTTCGTCGGCAGCGTC</t>
+    <t>F0851-CATGAGGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGAGGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F0852-ACGTAGGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTAGGTTGTCGTCGGCAGCGTC</t>
+    <t>F0852-TTGTAGGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTAGGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F0853-TTCTGTGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGTGCTATCGTCGGCAGCGTC</t>
+    <t>F0853-GAAGTGATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTGATCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F0854-ACCTACACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTACACCATCGTCGGCAGCGTC</t>
+    <t>F0854-TAGTCTGACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCTGACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F0855-AAGACCATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGACCATCATCGTCGGCAGCGTC</t>
+    <t>F0855-AACTCCTAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTCCTAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F0856-ACTGAGATGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGAGATGCTCGTCGGCAGCGTC</t>
+    <t>F0856-GCAGTAGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAGTAGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F0857-AACCACTTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCACTTCCTCGTCGGCAGCGTC</t>
+    <t>F0857-AGAGACAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGACAAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F0858-GAGGTTCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGGTTCTACTCGTCGGCAGCGTC</t>
+    <t>F0858-AACGACTACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGACTACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F0859-AAGAGCTTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGCTTGTTCGTCGGCAGCGTC</t>
+    <t>F0859-AGAGCTGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGCTGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F0860-CAGATGTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGATGTCTCTCGTCGGCAGCGTC</t>
+    <t>F0860-TCTTGTCGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGTCGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F0861-TGTAGAGACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTAGAGACGTCGTCGGCAGCGTC</t>
+    <t>F0861-TCAGACCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGACCATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F0862-AGTTCCTACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTTCCTACATCGTCGGCAGCGTC</t>
+    <t>F0862-ATGTGAACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTGAACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F0863-CAGTCTGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTCTGAGATCGTCGGCAGCGTC</t>
+    <t>F0863-GGATCCACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGATCCACTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F0864-TGAGTGAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTGAGACTCGTCGGCAGCGTC</t>
+    <t>F0864-AAGCAGGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCAGGATGTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
